--- a/target/classes/testdata/OrderTest.xlsx
+++ b/target/classes/testdata/OrderTest.xlsx
@@ -14,21 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>inputJson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expected</t>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>testFunctionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -38,9 +34,229 @@
   <si>
     <t>[
   {
-    "waybillId": "1zt000002"
+    "waybillId": "1ZT18032100000001"
   }
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderDetailsTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户中心-订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "page": 1,
+    "size": 10
+  },
+  {
+    "startDate":"2018-03-21 00:00:00",
+    "endDate":"2018-03-21 23:59:59",
+    "waybillId": "1ZT18032100000001",//运单号
+    "orderState": "",//订单状态
+    "consignorName": ""//发货人
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryOrderListPageTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方订单-列表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+　　"content":{
+　　　　"content":[
+　　　　],
+　　　　"first":true,
+　　　　"last":true,
+　　　　"number":0,
+　　　　"numberOfElements":0,
+　　　　"size":10,
+　　　　"totalElements":0,
+　　　　"totalPages":0
+　　},
+　　"resultCode":"200"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderRefuseTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方订单-拒绝接单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方订单-绑定运单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderBindWaybillListPageTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "orderNo":"TMSAB1803060029"//订单号
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+　　"content":{
+　　　　"_id":"5ab1f2cce65e7c34884c59a9",
+　　　　"serviceFee":[
+　　　　　　{
+　　　　　　　　"amount":20,
+　　　　　　　　"feeTypeName":"运费",
+　　　　　　　　"feeType":"tranSportFee"
+　　　　　　}
+　　　　],
+　　　　"shipper":{
+　　　　　　"clientTel":"020-0000000",
+　　　　　　"clientAreaId":"xxxx01",
+　　　　　　"clientType":"月结客户",
+　　　　　　"clientName":"佛山市响叮当家具有限公司2",
+　　　　　　"clientArea":"省市区县",
+　　　　　　"clientCode":"KH2018035893",
+　　　　　　"isPickup":false,
+　　　　　　"salesman":"王五",
+　　　　　　"clientTypeName":"普通",
+　　　　　　"clientAddress":"龙江镇龙头家具材料市场C2栋203",
+　　　　　　"clientPhone":"130000000000"
+　　　　},
+　　　　"product":[
+　　　　　　{
+　　　　　　　　"installFee":0,
+　　　　　　　　"package":"纸箱",
+　　　　　　　　"otherFee":0,
+　　　　　　　　"volumes":0,
+　　　　　　　　"installPackages":0,
+　　　　　　　　"weights":0,
+　　　　　　　　"tranSportFee":0,
+　　　　　　　　"protectionFee":0,
+　　　　　　　　"businessProduct":{
+　　　　　　　　　　"goodsId":"",
+　　　　　　　　　　"name":""
+　　　　　　　　},
+　　　　　　　　"deliveryFee":0,
+　　　　　　　　"standardProduct":{
+　　　　　　　　　　"goodsId":"",
+　　　　　　　　　　"name":""
+　　　　　　　　},
+　　　　　　　　"numberPackages":0,
+　　　　　　　　"valueCharge":0
+　　　　　　}
+　　　　],
+　　　　"billingMode":"正常开单",
+　　　　"receiver":{
+　　　　　　"receiveTel":"020-0000000",
+　　　　　　"isLift":false,
+　　　　　　"receivePhone":"130000000000",
+　　　　　　"endAreaId":"xxxx01",
+　　　　　　"receiveName":"巢趣转吴益敏",
+　　　　　　"receiveAddress":"广东省广州市越秀区六榕街道 稻谷仓1号大院5栋501房",
+　　　　　　"receiveCode":"KH2018035891",
+　　　　　　"floorNumber":3,
+　　　　　　"endAreaName":"目的省市区县街道"
+　　　　},
+　　　　"isDraft":false,
+　　　　"goods":{
+　　　　　　"package":"纸箱",
+　　　　　　"goodsTypeName":"板式",
+　　　　　　"bigStones":0,
+　　　　　　"volumes":0.3,
+　　　　　　"packages":10,
+　　　　　　"weights":0,
+　　　　　　"goodsType":"plateType"
+　　　　},
+　　　　"remark":"运单备注",
+　　　　"isAdd":true,
+　　　　"payTypeName":"现付",
+　　　　"payType":"payCash",
+　　　　"service":{
+　　　　　　"serviceType":"sendHomeAndInstall",
+　　　　　　"checkType":"precise",
+　　　　　　"orderSource":"Tmall",
+　　　　　　"orderId":"TMSAB1803060029",
+　　　　　　"orderSourceName":"天猫",
+　　　　　　"agingProductName":"普通",
+　　　　　　"checkTypeName":"精准核销",
+　　　　　　"customerId":"18022181303632",
+　　　　　　"agingProduct":"ordinary",
+　　　　　　"serviceTypeName":"配送到家并安装"
+　　　　},
+　　　　"waybillId":"1ZT18032100000001",
+　　　　"company":{
+　　　　　　"deptName":"一智通九江营业部2",
+　　　　　　"deptId":"201710002",
+　　　　　　"orgId":"yztpt"
+　　　　},
+　　　　"abnormalState":"normal",
+　　　　"abnormalStateName":"正常",
+　　　　"waybillFlag":"normal",
+　　　　"waybillFlagName":"正常",
+　　　　"paymentStatus":"unpaid",
+　　　　"paymentStatusName":"未付款",
+　　　　"lastStatus":"draft",
+　　　　"lastStatusName":"待完善",
+　　　　"preOpenTime":"2018-03-21 05:51:08.593",
+　　　　"billingTime":"2018-03-21 05:51:08.599",
+　　　　"createTime":"2018-03-21 05:51:08.743",
+　　　　"lastUpdateTime":"2018-03-21 05:51:08.743",
+　　　　"version":1,
+　　　　"totalFee":20
+　　},
+　　"resultCode":"200"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "page": 1,
+    "size": 10
+  },
+  {
+    "waybillId": "1ZT18032100000001",//运单号
+    "receivePhone": "",//收货人手机号 
+    "receiveName": "",//收货人名称
+    "clientName": "",//发货人名称
+    "startBillingTime":"",//开单开始时间
+    "endBillingTime":""//开单结束时间
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "orderNo": "TMSAB1803060029"//订单号
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方订单-订单号查询订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryOrderByIdTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,12 +329,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,16 +640,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105" customWidth="1"/>
     <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,67 +662,192 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
